--- a/02_SQLPlus_LoginUserSelect/docs/02_TestCase.xlsx
+++ b/02_SQLPlus_LoginUserSelect/docs/02_TestCase.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\02_SQLPlus_LoginUserSelect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\02_SQLPlus_LoginUserSelect\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1B160-A5A2-4DB4-AE2E-C28DE58F4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9FFA44-B046-43B4-B55C-63E64FEEE80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
   </bookViews>
   <sheets>
     <sheet name="総合試験仕様書 (ver0.0.2)" sheetId="7" r:id="rId1"/>
-    <sheet name="証跡" sheetId="6" r:id="rId2"/>
+    <sheet name="総合試験仕様書 (ver1.0.0)" sheetId="8" r:id="rId2"/>
+    <sheet name="証跡" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'総合試験仕様書 (ver0.0.2)'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'総合試験仕様書 (ver1.0.0)'!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -459,6 +461,45 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本試験項目作成所要時間(分)：3</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本試験項目実施およびコード修正時間(分)：1</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -771,59 +812,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,7 +1562,7 @@
   </sheetPr>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1605,56 +1646,56 @@
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="18">
         <v>46022</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="18"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
@@ -1674,112 +1715,112 @@
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="18">
         <v>46022</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="18"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="18"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="18">
         <v>46022</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="18"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="19"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
@@ -1799,326 +1840,354 @@
         <v>4</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="18">
         <v>46022</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="18"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="18"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="18"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="19"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="18">
         <v>46022</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="18"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="18"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="18"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="18"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="19"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
         <v>6</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="18">
         <v>46022</v>
       </c>
-      <c r="J34" s="33"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="18"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="18"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="18"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="18"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="19"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="6">
         <v>7</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="18">
         <v>46022</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="18"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="18"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="18"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="18"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="19"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="str">
         <f ca="1">_xlfn.CONCAT("印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
-        <v>印刷日：2025/12/31</v>
+        <v>印刷日：2026/01/01</v>
       </c>
       <c r="J47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="D28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="D22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="D13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="D17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="I28:I33"/>
     <mergeCell ref="J28:J33"/>
     <mergeCell ref="D40:E45"/>
@@ -2133,34 +2202,6 @@
     <mergeCell ref="H34:H39"/>
     <mergeCell ref="I34:I39"/>
     <mergeCell ref="J34:J39"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="D13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="D17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="D22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="D28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2172,6 +2213,358 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21C532-DBAA-4B6C-888D-F616FD624646}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="77.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="18">
+        <v>46022</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="18">
+        <v>46022</v>
+      </c>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="18">
+        <v>46022</v>
+      </c>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" t="str">
+        <f ca="1">_xlfn.CONCAT("印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
+        <v>印刷日：2026/01/01</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942FC8EC-2FC4-4386-9B67-A381B217FB17}">
   <dimension ref="B2:B236"/>
   <sheetViews>

--- a/02_SQLPlus_LoginUserSelect/docs/02_TestCase.xlsx
+++ b/02_SQLPlus_LoginUserSelect/docs/02_TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\02_SQLPlus_LoginUserSelect\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9FFA44-B046-43B4-B55C-63E64FEEE80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4718B-EA59-4A33-8486-4896DCD0DF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CEC575C-2CE2-4A91-9FC5-0346F782D22B}"/>
   </bookViews>
   <sheets>
     <sheet name="総合試験仕様書 (ver0.0.2)" sheetId="7" r:id="rId1"/>
@@ -815,7 +815,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,43 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1562,9 +1562,9 @@
   </sheetPr>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1646,56 +1646,56 @@
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="33">
         <v>46022</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
@@ -1715,76 +1715,76 @@
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="33">
         <v>46022</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="33">
         <v>46022</v>
       </c>
       <c r="J17" s="34"/>
@@ -1792,35 +1792,35 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
@@ -1840,312 +1840,312 @@
         <v>4</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="33">
         <v>46022</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="33">
         <v>46022</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
         <v>6</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="22"/>
+      <c r="F34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="33">
         <v>46022</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="6">
         <v>7</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="30" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="33">
         <v>46022</v>
       </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="23"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
@@ -2153,23 +2153,31 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="str">
-        <f ca="1">_xlfn.CONCAT("印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
-        <v>印刷日：2026/01/01</v>
+        <f ca="1">_xlfn.CONCAT("PDF出力・印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
+        <v>PDF出力・印刷日：2026/01/02</v>
       </c>
       <c r="J47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="D28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="D22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="D34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="J34:J39"/>
+    <mergeCell ref="D40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="J17:J20"/>
     <mergeCell ref="D13:E16"/>
     <mergeCell ref="F13:F16"/>
@@ -2182,26 +2190,18 @@
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="H17:H20"/>
     <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="D28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="D22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
     <mergeCell ref="I28:I33"/>
     <mergeCell ref="J28:J33"/>
-    <mergeCell ref="D40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="D34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="J34:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2219,9 +2219,9 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2303,56 +2303,56 @@
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="33">
         <v>46022</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
@@ -2372,156 +2372,156 @@
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="33">
         <v>46022</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="23"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="33">
         <v>46022</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
@@ -2529,18 +2529,19 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" t="str">
-        <f ca="1">_xlfn.CONCAT("印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
-        <v>印刷日：2026/01/01</v>
+        <f ca="1">_xlfn.CONCAT("PDF出力・印刷日："&amp;TEXT(TODAY(),"YYYY/MM/DD"))</f>
+        <v>PDF出力・印刷日：2026/01/02</v>
       </c>
       <c r="J26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="J19:J24"/>
     <mergeCell ref="D13:E18"/>
     <mergeCell ref="F13:F18"/>
@@ -2548,12 +2549,11 @@
     <mergeCell ref="H13:H18"/>
     <mergeCell ref="I13:I18"/>
     <mergeCell ref="J13:J18"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="I19:I24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2568,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942FC8EC-2FC4-4386-9B67-A381B217FB17}">
   <dimension ref="B2:B236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A133" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2650,6 +2650,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="61" max="16383" man="1"/>
+    <brk id="120" max="16383" man="1"/>
+    <brk id="179" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>